--- a/XLSX/PrimaryStudiesDataNon-Coded.xlsx
+++ b/XLSX/PrimaryStudiesDataNon-Coded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20173669\Documents\School\Master\SA Maryam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C49EF35-AEEC-4DB2-91DD-61EE35933738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F757C39-5D0A-4D19-A74B-C7ECD5E6752B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15990" xr2:uid="{A63E2223-7E51-462A-9CE5-C07E693ACF3A}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="24765" windowHeight="21000" xr2:uid="{A63E2223-7E51-462A-9CE5-C07E693ACF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryStudiesDataNon-Coded" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>Study is about software development decisions</t>
   </si>
   <si>
-    <t>Intuition: Associative, experiential, low effort, pragmatic Rationality:  Controlled, high-e_x001B_ort, rule-based</t>
-  </si>
-  <si>
     <t>Consciousness, Evolution, Functional characteristics</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>This study investigates computer software maintenance</t>
   </si>
   <si>
-    <t>Experiential</t>
-  </si>
-  <si>
     <t>SE7</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>Study considers software design decision making</t>
   </si>
   <si>
-    <t>Intuition: Rapid, experiential Rationality: Slow, controlled, logical, rule-based</t>
-  </si>
-  <si>
     <t>SE10</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>The study focuses on reasoning in software design</t>
   </si>
   <si>
-    <t>Intuition:Associative, holistic, reflective  Rationality: Contextualized, controlled, rule-based</t>
-  </si>
-  <si>
     <t>Decision Making Process Measures</t>
   </si>
   <si>
@@ -432,9 +420,6 @@
   </si>
   <si>
     <t>SE12</t>
-  </si>
-  <si>
-    <t>Re_x001D_ective Approach for Software Design Decision Making.</t>
   </si>
   <si>
     <t>Proceedings of the 1st Workshop on Qualitative
@@ -719,9 +704,6 @@
       </rPr>
       <t>6</t>
     </r>
-  </si>
-  <si>
-    <t>Intuition: Associative, contextualized, experiential, low effort, rapid Rationality: Controlled, high effort, rule-based</t>
   </si>
   <si>
     <t>Requirements</t>
@@ -882,6 +864,24 @@
       </rPr>
       <t>These keywords are from the SCOPUS entry</t>
     </r>
+  </si>
+  <si>
+    <t>Intuition: Associative, low effort, pragmatic Rationality:  Controlled, high-e_x001B_ort, rule-based</t>
+  </si>
+  <si>
+    <t>Associative</t>
+  </si>
+  <si>
+    <t>Intuition: Rapid, associative Rationality: Slow, controlled, logical, rule-based</t>
+  </si>
+  <si>
+    <t>Intuition:Associative, holistic, Analytic  Rationality: Contextualized, controlled, rule-based</t>
+  </si>
+  <si>
+    <t>Reflective Approach for Software Design Decision Making.</t>
+  </si>
+  <si>
+    <t>Intuition: Associative, contextualized, , low effort, rapid Rationality: Controlled, high effort, rule-based</t>
   </si>
 </sst>
 </file>
@@ -1617,10 +1617,10 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:S28"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,13 +1940,13 @@
         <v>70</v>
       </c>
       <c r="J6" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="L6" s="29" t="s">
         <v>72</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>73</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="27" t="s">
@@ -1959,41 +1959,41 @@
         <v>53</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" s="36"/>
       <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="27">
         <v>2005</v>
       </c>
       <c r="E7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="H7" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>82</v>
-      </c>
       <c r="J7" s="30" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>62</v>
@@ -2006,20 +2006,20 @@
         <v>53</v>
       </c>
       <c r="Q7" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R7" s="36"/>
       <c r="S7" s="37"/>
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="D8" s="27">
         <v>2012</v>
@@ -2028,16 +2028,16 @@
         <v>22</v>
       </c>
       <c r="F8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="31"/>
@@ -2056,37 +2056,37 @@
     </row>
     <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="D9" s="27">
         <v>2019</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>94</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>96</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="33" t="s">
@@ -2102,20 +2102,20 @@
         <v>53</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R9" s="36"/>
       <c r="S9" s="37"/>
     </row>
     <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="D10" s="27">
         <v>2021</v>
@@ -2124,25 +2124,25 @@
         <v>22</v>
       </c>
       <c r="F10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="I10" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>105</v>
-      </c>
       <c r="J10" s="30" t="s">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10" s="33"/>
       <c r="N10" s="27" t="s">
@@ -2155,38 +2155,38 @@
         <v>29</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R10" s="36"/>
       <c r="S10" s="37"/>
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="27">
         <v>2010</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>113</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="31"/>
@@ -2203,15 +2203,15 @@
       <c r="R11" s="36"/>
       <c r="S11" s="37"/>
     </row>
-    <row r="12" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="27">
         <v>2016</v>
@@ -2220,84 +2220,84 @@
         <v>22</v>
       </c>
       <c r="F12" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="J12" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="Q12" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="36" t="s">
         <v>119</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>123</v>
       </c>
       <c r="S12" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" s="27">
         <v>2016</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="33" t="s">
         <v>42</v>
@@ -2312,47 +2312,47 @@
         <v>53</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="S13" s="37"/>
     </row>
     <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D14" s="27">
         <v>2016</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14" s="33" t="s">
         <v>42</v>
@@ -2370,44 +2370,44 @@
         <v>30</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="S14" s="37"/>
     </row>
     <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D15" s="27">
         <v>2011</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M15" s="33" t="s">
         <v>42</v>
@@ -2422,45 +2422,45 @@
         <v>53</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R15" s="36"/>
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D16" s="27">
         <v>2008</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K16" s="31"/>
       <c r="L16" s="32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="27"/>
@@ -2471,7 +2471,7 @@
         <v>29</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R16" s="36"/>
       <c r="S16" s="37" t="s">
@@ -2480,31 +2480,31 @@
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D17" s="27">
         <v>2017</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J17" s="34"/>
       <c r="K17" s="31"/>
@@ -2516,20 +2516,20 @@
         <v>53</v>
       </c>
       <c r="Q17" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R17" s="36"/>
       <c r="S17" s="37"/>
     </row>
     <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D18" s="27">
         <v>2018</v>
@@ -2538,23 +2538,23 @@
         <v>22</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M18" s="33" t="s">
         <v>42</v>
@@ -2576,38 +2576,38 @@
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D19" s="27">
         <v>2012</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K19" s="31"/>
       <c r="L19" s="32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="27" t="s">
@@ -2620,20 +2620,20 @@
         <v>53</v>
       </c>
       <c r="Q19" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R19" s="36"/>
       <c r="S19" s="37"/>
     </row>
     <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D20" s="27">
         <v>2013</v>
@@ -2642,23 +2642,23 @@
         <v>22</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M20" s="33" t="s">
         <v>42</v>
@@ -2676,19 +2676,19 @@
         <v>30</v>
       </c>
       <c r="R20" s="36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="S20" s="37"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D21" s="27">
         <v>2016</v>
@@ -2697,16 +2697,16 @@
         <v>22</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J21" s="34"/>
       <c r="K21" s="31"/>
@@ -2729,37 +2729,37 @@
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D22" s="27">
         <v>2017</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="33" t="s">
@@ -2775,20 +2775,20 @@
         <v>53</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R22" s="36"/>
       <c r="S22" s="37"/>
     </row>
-    <row r="23" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D23" s="27">
         <v>2007</v>
@@ -2797,25 +2797,25 @@
         <v>22</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="K23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="M23" s="33"/>
       <c r="N23" s="27" t="s">
@@ -2828,40 +2828,40 @@
         <v>53</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R23" s="36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="S23" s="37"/>
     </row>
     <row r="24" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D24" s="27">
         <v>2005</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="31"/>
@@ -2877,47 +2877,47 @@
         <v>53</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R24" s="36"/>
       <c r="S24" s="37"/>
     </row>
-    <row r="25" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D25" s="27">
         <v>2006</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="K25" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L25" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="27" t="s">
@@ -2930,47 +2930,47 @@
         <v>53</v>
       </c>
       <c r="Q25" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R25" s="36"/>
       <c r="S25" s="37"/>
     </row>
-    <row r="26" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D26" s="27">
         <v>2007</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="K26" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="27" t="s">
@@ -2983,47 +2983,47 @@
         <v>53</v>
       </c>
       <c r="Q26" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R26" s="36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="S26" s="37"/>
     </row>
     <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D27" s="44">
         <v>2007</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H27" s="46" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="44" t="s">
@@ -3052,7 +3052,7 @@
       <c r="F28" s="56"/>
       <c r="G28" s="54"/>
       <c r="H28" s="57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I28" s="58"/>
       <c r="J28" s="57"/>
@@ -3068,32 +3068,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{6A2812E3-5816-46EB-9679-32063264DDD6}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{C53116D0-BFBF-4716-A791-A699C98A024E}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{DF0A2A58-EB3C-453A-921F-4905B37017CC}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{BE4A8592-6BA8-4742-AB40-095B1372C2ED}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{430002A3-1FCB-4886-AAF5-6034EBA10BB1}"/>
-    <hyperlink ref="G18" r:id="rId6" xr:uid="{7E217A66-EFF6-42A4-B63E-F1AB3DEF96FD}"/>
-    <hyperlink ref="G14" r:id="rId7" xr:uid="{75CEB62C-8F09-43A4-A095-3D3C56FD20CD}"/>
-    <hyperlink ref="G15" r:id="rId8" xr:uid="{86BAFF74-4EEA-405B-9CF1-A7583313C899}"/>
-    <hyperlink ref="G16" r:id="rId9" xr:uid="{DA435D34-0BD0-4404-939D-044382B83D4A}"/>
-    <hyperlink ref="G17" r:id="rId10" xr:uid="{6C946CFE-98E5-4695-99D6-83E3E7902C6F}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{594DC8B0-F038-4AEA-8EA6-16BF6612BA30}"/>
-    <hyperlink ref="G20" r:id="rId12" xr:uid="{3D3036C2-C168-464F-BDB1-41C005857ECB}"/>
-    <hyperlink ref="G21" r:id="rId13" xr:uid="{EDCB870E-DCEA-45C6-892F-4CE37BFBD6B5}"/>
-    <hyperlink ref="G22" r:id="rId14" xr:uid="{4B8FE713-9A2D-4F5D-BDDC-09412319240A}"/>
-    <hyperlink ref="G23" r:id="rId15" xr:uid="{386A6496-C36A-446B-BF07-7DCC019CC3A4}"/>
-    <hyperlink ref="G24" r:id="rId16" xr:uid="{9D6E92DE-7CBB-42FE-A73B-D9C44B8CD4BD}"/>
-    <hyperlink ref="G25" r:id="rId17" xr:uid="{6ACD5C77-D08C-417E-85A1-1D927C67DF71}"/>
-    <hyperlink ref="G26" r:id="rId18" xr:uid="{10B8020E-B662-4832-A176-4D62CC3CBBDA}"/>
-    <hyperlink ref="G27" r:id="rId19" xr:uid="{6288FA5D-A16E-4F7F-8746-B6AB8ADFB2E3}"/>
-    <hyperlink ref="G7" r:id="rId20" xr:uid="{605DBB89-910D-4EA8-B03B-4BB355391B73}"/>
-    <hyperlink ref="G5" r:id="rId21" xr:uid="{C0E24814-9E53-4E9A-A46B-4480C53CC184}"/>
-    <hyperlink ref="G4" r:id="rId22" xr:uid="{5FF13648-6550-41C8-8199-716BC843C866}"/>
-    <hyperlink ref="G3" r:id="rId23" xr:uid="{9AC5FA6D-E447-4BC6-BAAF-6BEF96E61562}"/>
-    <hyperlink ref="G2" r:id="rId24" xr:uid="{5C9404C0-514F-431F-AE3A-F10886382104}"/>
-    <hyperlink ref="G8" r:id="rId25" xr:uid="{DD061C98-C397-4425-9D72-1159021BCB06}"/>
-    <hyperlink ref="G6" r:id="rId26" xr:uid="{BB801CE1-83C0-4FFF-95BA-261D0EEC2ED4}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{AA7A102B-65E1-45B6-A72B-1205EA535415}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{E8ADF3F3-5406-4F92-B27A-8F537860FB7D}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{CB3B53A4-9F84-499B-A29A-40376243F416}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{DA493562-8493-430E-A2BB-88F21BDCCF47}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{6885D0CD-0BBA-4E43-A177-B335051B192C}"/>
+    <hyperlink ref="G18" r:id="rId6" xr:uid="{20584AEE-84F6-4A21-B921-1BB5FB114B55}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{1EEF107D-58BF-4C6D-9832-2AFCEB0ABFAF}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{3C523018-7120-4A92-B1AC-E73E267C9B2B}"/>
+    <hyperlink ref="G16" r:id="rId9" xr:uid="{49AF72DE-F1D3-42CB-954D-AB0E98121E0C}"/>
+    <hyperlink ref="G17" r:id="rId10" xr:uid="{240AE861-AB89-44C0-A749-CA0BBE0C2D32}"/>
+    <hyperlink ref="G19" r:id="rId11" xr:uid="{7F5F4013-E276-439E-B652-510D6CA10F56}"/>
+    <hyperlink ref="G20" r:id="rId12" xr:uid="{17659F09-2599-4D9C-84FB-00302F7EB55F}"/>
+    <hyperlink ref="G21" r:id="rId13" xr:uid="{BCCEC673-03F3-4320-AE62-354A0BF8333A}"/>
+    <hyperlink ref="G22" r:id="rId14" xr:uid="{5F903136-4EA0-4679-9D2D-3B48E0A4F3C4}"/>
+    <hyperlink ref="G23" r:id="rId15" xr:uid="{68A87433-B225-4E97-B4CF-C29C0580617A}"/>
+    <hyperlink ref="G24" r:id="rId16" xr:uid="{9C2A46DC-67F9-4A84-B657-69C77B4C1D18}"/>
+    <hyperlink ref="G25" r:id="rId17" xr:uid="{D56DDA34-168F-4864-934F-596220A75CA3}"/>
+    <hyperlink ref="G26" r:id="rId18" xr:uid="{F4B13077-1EFB-4AF9-A185-2C236B8FCAE9}"/>
+    <hyperlink ref="G27" r:id="rId19" xr:uid="{E20B4F23-83C5-45C9-9546-23B6C959052A}"/>
+    <hyperlink ref="G7" r:id="rId20" xr:uid="{5DE25B3D-6337-4DBE-AEF5-3A8BE419121C}"/>
+    <hyperlink ref="G5" r:id="rId21" xr:uid="{680DFADF-77F5-4289-A063-8019A1B438D9}"/>
+    <hyperlink ref="G4" r:id="rId22" xr:uid="{FDF1230F-CD65-4B2E-BB38-E140C07ADCD0}"/>
+    <hyperlink ref="G3" r:id="rId23" xr:uid="{A71847BA-1459-4FFF-921A-FC72C63CC62B}"/>
+    <hyperlink ref="G2" r:id="rId24" xr:uid="{BE522C2A-D43D-45B7-89B8-3B629C09F8B5}"/>
+    <hyperlink ref="G8" r:id="rId25" xr:uid="{AA2765F4-0869-4DEE-84F8-28BA391371ED}"/>
+    <hyperlink ref="G6" r:id="rId26" xr:uid="{DA77DC66-B902-48ED-B27E-EE0039C1F638}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
